--- a/encryption/Node/NodeUnivHash128.xlsx
+++ b/encryption/Node/NodeUnivHash128.xlsx
@@ -1715,7 +1715,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -1735,12 +1735,12 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -1750,12 +1750,12 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -1770,7 +1770,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -1780,7 +1780,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -1795,12 +1795,12 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -1815,7 +1815,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -1825,22 +1825,22 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -1855,7 +1855,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -1865,22 +1865,22 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -1905,7 +1905,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -1920,12 +1920,12 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -1935,7 +1935,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -1945,12 +1945,12 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -1965,12 +1965,12 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -1980,7 +1980,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -1995,12 +1995,12 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -2015,7 +2015,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -2025,12 +2025,12 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -2050,7 +2050,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -2060,7 +2060,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -2085,12 +2085,12 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -2100,22 +2100,22 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -2125,7 +2125,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -2135,17 +2135,17 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -2165,7 +2165,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -2185,7 +2185,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -2235,7 +2235,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -2245,27 +2245,27 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -2275,17 +2275,17 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -2295,7 +2295,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -2305,12 +2305,12 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -2330,22 +2330,22 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -2370,7 +2370,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -2385,7 +2385,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -2405,12 +2405,12 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -2420,7 +2420,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -2430,7 +2430,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -2460,7 +2460,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -2475,17 +2475,17 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -2510,7 +2510,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -2530,22 +2530,22 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -2560,7 +2560,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -2580,12 +2580,12 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -2595,12 +2595,12 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -2615,17 +2615,17 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -2660,7 +2660,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -2695,27 +2695,27 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -2725,7 +2725,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -2740,7 +2740,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -2755,7 +2755,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -2770,7 +2770,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -2780,7 +2780,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -2790,7 +2790,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -2805,32 +2805,32 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -2845,22 +2845,22 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -2870,7 +2870,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -2880,12 +2880,12 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -2900,12 +2900,12 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -2950,7 +2950,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -2960,27 +2960,27 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -3000,7 +3000,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -3020,7 +3020,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -3035,12 +3035,12 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -3055,12 +3055,12 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -3085,7 +3085,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -3105,7 +3105,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -3120,7 +3120,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -3135,7 +3135,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -3145,7 +3145,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -3170,7 +3170,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -3185,7 +3185,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -3205,7 +3205,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -3215,7 +3215,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -3235,7 +3235,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -3245,12 +3245,12 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -3260,32 +3260,32 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -3295,7 +3295,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -3305,7 +3305,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -3330,7 +3330,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -3340,12 +3340,12 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -3355,12 +3355,12 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -3370,12 +3370,12 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -3405,7 +3405,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -3420,17 +3420,17 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -3440,7 +3440,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -3450,7 +3450,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -3475,12 +3475,12 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -3490,7 +3490,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -3500,22 +3500,22 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -3535,7 +3535,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -3545,12 +3545,12 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -3565,17 +3565,17 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -3585,12 +3585,12 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -3600,7 +3600,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -3610,7 +3610,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -3620,17 +3620,17 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -3640,27 +3640,27 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -3670,12 +3670,12 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -3700,27 +3700,27 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -3735,22 +3735,22 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -3760,7 +3760,7 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -3770,7 +3770,7 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -3800,7 +3800,7 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -3810,7 +3810,7 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -3835,17 +3835,17 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -3855,17 +3855,17 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -3875,12 +3875,12 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -3895,7 +3895,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -3910,7 +3910,7 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
@@ -3925,7 +3925,7 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -3935,7 +3935,7 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -3945,7 +3945,7 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -3955,22 +3955,22 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -3990,12 +3990,12 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -4005,7 +4005,7 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -4015,7 +4015,7 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -4025,12 +4025,12 @@
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -4045,7 +4045,7 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -4060,7 +4060,7 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -4070,12 +4070,12 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
@@ -4100,7 +4100,7 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -4110,7 +4110,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -4120,12 +4120,12 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -4145,7 +4145,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -4155,37 +4155,37 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -4210,7 +4210,7 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -4245,12 +4245,12 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -4260,7 +4260,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
